--- a/src/test/testdaten_insert_anzahl_kinder/Anzahl Kinder Arbeitnehmer PV-Beitrag - selbe Kinderanzahl, andere Werte.xlsx
+++ b/src/test/testdaten_insert_anzahl_kinder/Anzahl Kinder Arbeitnehmer PV-Beitrag - selbe Kinderanzahl, andere Werte.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\test\testdaten_insert_anzahl_kinder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8622C61-B1EB-44BF-A27F-0C427443CB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB82F59B-D6B3-40BC-A455-E7347E38C9A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4992" yWindow="1728" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2112" yWindow="2280" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,19 +36,19 @@
     <t>Eintragsdatum</t>
   </si>
   <si>
-    <t>Anzahl Kinder</t>
-  </si>
-  <si>
     <t>Arbeitnehmerbeitrag gesetzliche Pflegeversicherung in Prozent</t>
   </si>
   <si>
-    <t>Beitragsbemessungsgrenze PV Ost</t>
-  </si>
-  <si>
-    <t>Beitragsbemessungsgrenze PV West</t>
-  </si>
-  <si>
-    <t>15.12.2023</t>
+    <t>Anzahl Kinder unter 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beitragsbemessungsgrenze PV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jahresarbeitsentgeltgrenze PV </t>
+  </si>
+  <si>
+    <t>01.01.2025</t>
   </si>
 </sst>
 </file>
@@ -381,7 +381,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -400,7 +400,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -408,7 +408,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>1.2</v>

--- a/src/test/testdaten_insert_anzahl_kinder/Anzahl Kinder Arbeitnehmer PV-Beitrag - selbe Kinderanzahl, andere Werte.xlsx
+++ b/src/test/testdaten_insert_anzahl_kinder/Anzahl Kinder Arbeitnehmer PV-Beitrag - selbe Kinderanzahl, andere Werte.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\test\testdaten_insert_anzahl_kinder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB82F59B-D6B3-40BC-A455-E7347E38C9A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A84AD4-7FC5-4E90-B00B-8D48E36C2AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2112" yWindow="2280" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Daten</t>
   </si>
@@ -49,6 +50,18 @@
   </si>
   <si>
     <t>01.01.2025</t>
+  </si>
+  <si>
+    <t>Juenger als 23 oder geboren vor 1940</t>
+  </si>
+  <si>
+    <t>nein</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>ja</t>
   </si>
 </sst>
 </file>
@@ -378,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -408,38 +421,88 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1.2</v>
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>78456.12</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>82345.98</v>
+        <v>78456.12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>82345.98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6F14C9F4-6A52-4F0C-8D1D-1F3D5E91FA43}">
+          <x14:formula1>
+            <xm:f>Tabelle2!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8562AB41-7EA2-49AB-B111-761E8FF2CCA4}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>